--- a/data/pca/factorExposure/factorExposure_2018-12-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.09369892459191516</v>
+        <v>-0.0600541035522251</v>
       </c>
       <c r="C2">
-        <v>-0.0308878123413568</v>
+        <v>-0.03436239044013169</v>
       </c>
       <c r="D2">
-        <v>0.07330200727502531</v>
+        <v>-0.01806769199759201</v>
       </c>
       <c r="E2">
-        <v>0.0142027580317103</v>
+        <v>-0.03498248556347731</v>
       </c>
       <c r="F2">
-        <v>0.1205184032651695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1178024502705672</v>
+      </c>
+      <c r="G2">
+        <v>-0.06182601334531646</v>
+      </c>
+      <c r="H2">
+        <v>0.06664627540233149</v>
+      </c>
+      <c r="I2">
+        <v>-0.1131197260016557</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.1946953368571024</v>
+        <v>-0.1420581924446121</v>
       </c>
       <c r="C3">
-        <v>0.105882615462668</v>
+        <v>-0.0855537241131232</v>
       </c>
       <c r="D3">
-        <v>0.12601034291426</v>
+        <v>0.00188346548111782</v>
       </c>
       <c r="E3">
-        <v>-0.01699441546969299</v>
+        <v>0.03375244692361765</v>
       </c>
       <c r="F3">
-        <v>0.3862332866307055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3937128559830483</v>
+      </c>
+      <c r="G3">
+        <v>-0.2729425009847822</v>
+      </c>
+      <c r="H3">
+        <v>0.1200434371874964</v>
+      </c>
+      <c r="I3">
+        <v>-0.3809781791305302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.08227445646191629</v>
+        <v>-0.06378343897177732</v>
       </c>
       <c r="C4">
-        <v>0.003673887468149908</v>
+        <v>-0.04615961303275027</v>
       </c>
       <c r="D4">
-        <v>0.0668409447852094</v>
+        <v>0.01465904522882287</v>
       </c>
       <c r="E4">
-        <v>-0.0340314124382998</v>
+        <v>-0.03872360501454938</v>
       </c>
       <c r="F4">
-        <v>0.0749676700195122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07841704750328107</v>
+      </c>
+      <c r="G4">
+        <v>-0.02099676570650827</v>
+      </c>
+      <c r="H4">
+        <v>0.04514978106762702</v>
+      </c>
+      <c r="I4">
+        <v>-0.06338372369507186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>3.871230156829914e-05</v>
+        <v>-0.02674182339877757</v>
       </c>
       <c r="C6">
-        <v>-8.180718834664209e-05</v>
+        <v>-0.01338900098916057</v>
       </c>
       <c r="D6">
-        <v>1.608415367164814e-05</v>
+        <v>0.004127372366485166</v>
       </c>
       <c r="E6">
-        <v>-4.005199938276273e-05</v>
+        <v>-0.007715274614481457</v>
       </c>
       <c r="F6">
-        <v>-0.0001987913272907389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.008843803672023339</v>
+      </c>
+      <c r="G6">
+        <v>0.01997145271615397</v>
+      </c>
+      <c r="H6">
+        <v>-0.01644740570323005</v>
+      </c>
+      <c r="I6">
+        <v>-0.00644463120950371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.03953909312604253</v>
+        <v>-0.03217165872356281</v>
       </c>
       <c r="C7">
-        <v>-0.008125820713191581</v>
+        <v>-0.01830248452639606</v>
       </c>
       <c r="D7">
-        <v>0.04982469734953363</v>
+        <v>0.03525653496757589</v>
       </c>
       <c r="E7">
-        <v>0.001720069945440237</v>
+        <v>-0.02779641841751628</v>
       </c>
       <c r="F7">
-        <v>0.08100148659710417</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.05290566425404123</v>
+      </c>
+      <c r="G7">
+        <v>-0.05028178363154377</v>
+      </c>
+      <c r="H7">
+        <v>0.006178173947269412</v>
+      </c>
+      <c r="I7">
+        <v>-0.0365069459977754</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.04248205695999588</v>
+        <v>-0.01926908763461761</v>
       </c>
       <c r="C8">
-        <v>0.02625785678212387</v>
+        <v>-0.0463078393954176</v>
       </c>
       <c r="D8">
-        <v>0.05287276475308413</v>
+        <v>0.01119469332543321</v>
       </c>
       <c r="E8">
-        <v>-0.0301418794697197</v>
+        <v>-0.01422436291586696</v>
       </c>
       <c r="F8">
-        <v>0.06965876886246605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07312990364053576</v>
+      </c>
+      <c r="G8">
+        <v>-0.04374649923420517</v>
+      </c>
+      <c r="H8">
+        <v>0.03992938869918047</v>
+      </c>
+      <c r="I8">
+        <v>-0.06183463448457567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.0692528049997124</v>
+        <v>-0.05404100621907715</v>
       </c>
       <c r="C9">
-        <v>-0.006193341743752042</v>
+        <v>-0.03894223263427234</v>
       </c>
       <c r="D9">
-        <v>0.06204785817926804</v>
+        <v>0.01700854041861765</v>
       </c>
       <c r="E9">
-        <v>-0.04798218528477455</v>
+        <v>-0.03364613531291705</v>
       </c>
       <c r="F9">
-        <v>0.06181464177699471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.08069994580163414</v>
+      </c>
+      <c r="G9">
+        <v>-0.017404279365786</v>
+      </c>
+      <c r="H9">
+        <v>0.04593339936439261</v>
+      </c>
+      <c r="I9">
+        <v>-0.03901805323574385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.03938452107439278</v>
+        <v>-0.05106877944023788</v>
       </c>
       <c r="C10">
-        <v>-0.09961823049268341</v>
+        <v>0.1641963342150745</v>
       </c>
       <c r="D10">
-        <v>-0.1197120267788821</v>
+        <v>-0.01389421484177518</v>
       </c>
       <c r="E10">
-        <v>0.05209102370186473</v>
+        <v>0.03438401114199417</v>
       </c>
       <c r="F10">
-        <v>0.06873391706237313</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0556114779140901</v>
+      </c>
+      <c r="G10">
+        <v>-0.02116866611803661</v>
+      </c>
+      <c r="H10">
+        <v>0.03752309437591458</v>
+      </c>
+      <c r="I10">
+        <v>-0.03438777922339233</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05233605635077938</v>
+        <v>-0.04393423939008802</v>
       </c>
       <c r="C11">
-        <v>0.007264553374521966</v>
+        <v>-0.03328350138330504</v>
       </c>
       <c r="D11">
-        <v>0.02347437311609777</v>
+        <v>-0.0056648926495908</v>
       </c>
       <c r="E11">
-        <v>0.003887016892247148</v>
+        <v>-0.008209864948821309</v>
       </c>
       <c r="F11">
-        <v>0.04883590270871001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03848687743120683</v>
+      </c>
+      <c r="G11">
+        <v>0.0009465280561326045</v>
+      </c>
+      <c r="H11">
+        <v>0.0134294997947836</v>
+      </c>
+      <c r="I11">
+        <v>-0.03664444252731409</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04458404060712915</v>
+        <v>-0.04172419889238928</v>
       </c>
       <c r="C12">
-        <v>0.0102880248133976</v>
+        <v>-0.03391155638110475</v>
       </c>
       <c r="D12">
-        <v>0.02609112003121349</v>
+        <v>0.006985816600835991</v>
       </c>
       <c r="E12">
-        <v>-0.0154186155145102</v>
+        <v>-0.01113708161186718</v>
       </c>
       <c r="F12">
-        <v>0.03942784192348568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01709689027816234</v>
+      </c>
+      <c r="G12">
+        <v>-0.005775091801409999</v>
+      </c>
+      <c r="H12">
+        <v>0.006638514690136167</v>
+      </c>
+      <c r="I12">
+        <v>-0.02692512508219552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.05286262861322236</v>
+        <v>-0.03868053760623785</v>
       </c>
       <c r="C13">
-        <v>0.00854978088973638</v>
+        <v>-0.02834763941262522</v>
       </c>
       <c r="D13">
-        <v>0.041941190773065</v>
+        <v>-0.01521727960363419</v>
       </c>
       <c r="E13">
-        <v>0.02642033717581708</v>
+        <v>-0.008434810211026348</v>
       </c>
       <c r="F13">
-        <v>0.1120240926630055</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.09630713074446916</v>
+      </c>
+      <c r="G13">
+        <v>-0.03559890431634135</v>
+      </c>
+      <c r="H13">
+        <v>0.03715306875118619</v>
+      </c>
+      <c r="I13">
+        <v>-0.07804976174837024</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.02820169724737528</v>
+        <v>-0.02283388784142013</v>
       </c>
       <c r="C14">
-        <v>-0.002946797853992214</v>
+        <v>-0.02202432642000059</v>
       </c>
       <c r="D14">
-        <v>0.04745373583319578</v>
+        <v>0.005477992470061094</v>
       </c>
       <c r="E14">
-        <v>-0.007769545907972178</v>
+        <v>-0.02798720195009119</v>
       </c>
       <c r="F14">
-        <v>0.03231094698990764</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03969157487694419</v>
+      </c>
+      <c r="G14">
+        <v>-0.05434704515689164</v>
+      </c>
+      <c r="H14">
+        <v>0.02327017288426577</v>
+      </c>
+      <c r="I14">
+        <v>-0.01673017501980517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04294775884610812</v>
+        <v>-0.03780919024445194</v>
       </c>
       <c r="C16">
-        <v>0.01454018356137235</v>
+        <v>-0.03403967572348491</v>
       </c>
       <c r="D16">
-        <v>0.02151170622151891</v>
+        <v>1.445622541682667e-05</v>
       </c>
       <c r="E16">
-        <v>-0.001280558937346122</v>
+        <v>-0.005503079003928315</v>
       </c>
       <c r="F16">
-        <v>0.03907897414914905</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03468228382675725</v>
+      </c>
+      <c r="G16">
+        <v>-0.005846515423350876</v>
+      </c>
+      <c r="H16">
+        <v>0.007816022463563378</v>
+      </c>
+      <c r="I16">
+        <v>-0.03742633325213451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06106767737344438</v>
+        <v>-0.04744539247835057</v>
       </c>
       <c r="C19">
-        <v>0.02932916842379553</v>
+        <v>-0.04524075902882677</v>
       </c>
       <c r="D19">
-        <v>0.04325971839459628</v>
+        <v>-0.003393650462085022</v>
       </c>
       <c r="E19">
-        <v>-0.0004718501442944132</v>
+        <v>-0.01333425850802335</v>
       </c>
       <c r="F19">
-        <v>0.09903218814583448</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09479251762911764</v>
+      </c>
+      <c r="G19">
+        <v>-0.04966977031213172</v>
+      </c>
+      <c r="H19">
+        <v>0.02830891333913696</v>
+      </c>
+      <c r="I19">
+        <v>-0.07682489432214636</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.02519690384586797</v>
+        <v>-0.01557727227362287</v>
       </c>
       <c r="C20">
-        <v>0.003310139443468633</v>
+        <v>-0.02434621410278863</v>
       </c>
       <c r="D20">
-        <v>0.05002451452830638</v>
+        <v>0.004280989928815877</v>
       </c>
       <c r="E20">
-        <v>-0.0206695876414497</v>
+        <v>-0.01885991023255251</v>
       </c>
       <c r="F20">
-        <v>0.07064403923028614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06176313960754624</v>
+      </c>
+      <c r="G20">
+        <v>-0.06516604783544136</v>
+      </c>
+      <c r="H20">
+        <v>0.01746944557760534</v>
+      </c>
+      <c r="I20">
+        <v>-0.06938510065289404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.02444801931512636</v>
+        <v>-0.02868142588985696</v>
       </c>
       <c r="C21">
-        <v>0.02212075430597528</v>
+        <v>-0.0238123377103274</v>
       </c>
       <c r="D21">
-        <v>0.03099174756653976</v>
+        <v>0.0107035515110257</v>
       </c>
       <c r="E21">
-        <v>0.006371580821726204</v>
+        <v>-0.001653625269885361</v>
       </c>
       <c r="F21">
-        <v>0.09583879954912559</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07334003011830514</v>
+      </c>
+      <c r="G21">
+        <v>-0.005428531723794775</v>
+      </c>
+      <c r="H21">
+        <v>0.05152980812315905</v>
+      </c>
+      <c r="I21">
+        <v>-0.007546030693797769</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.0423401615419572</v>
+        <v>-0.03644016685345933</v>
       </c>
       <c r="C24">
-        <v>0.008927990422075949</v>
+        <v>-0.02955116804823876</v>
       </c>
       <c r="D24">
-        <v>0.02435273225254152</v>
+        <v>0.0002684277987070774</v>
       </c>
       <c r="E24">
-        <v>-0.00478905731137309</v>
+        <v>-0.007905330572039761</v>
       </c>
       <c r="F24">
-        <v>0.04955252459275288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03701419100941591</v>
+      </c>
+      <c r="G24">
+        <v>-0.001940653908158322</v>
+      </c>
+      <c r="H24">
+        <v>0.008234890201039661</v>
+      </c>
+      <c r="I24">
+        <v>-0.03923089732453017</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.04648225875548972</v>
+        <v>-0.04490294564868099</v>
       </c>
       <c r="C25">
-        <v>0.007097109916581547</v>
+        <v>-0.02754423703266625</v>
       </c>
       <c r="D25">
-        <v>0.02281799721596393</v>
+        <v>-0.001000396393331094</v>
       </c>
       <c r="E25">
-        <v>-0.003841649922993168</v>
+        <v>-0.009003744582228235</v>
       </c>
       <c r="F25">
-        <v>0.04763497187639953</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04535890016396937</v>
+      </c>
+      <c r="G25">
+        <v>0.005176395442080991</v>
+      </c>
+      <c r="H25">
+        <v>0.01314743787441846</v>
+      </c>
+      <c r="I25">
+        <v>-0.03393520075239102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02318286279401144</v>
+        <v>-0.01370954432024064</v>
       </c>
       <c r="C26">
-        <v>0.0186751419108622</v>
+        <v>-0.02877371528848756</v>
       </c>
       <c r="D26">
-        <v>0.04485208862625035</v>
+        <v>-0.004834201007205153</v>
       </c>
       <c r="E26">
-        <v>0.01653882828401133</v>
+        <v>-0.0008978417859176898</v>
       </c>
       <c r="F26">
-        <v>0.04213496444819041</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04766620864255253</v>
+      </c>
+      <c r="G26">
+        <v>-0.0317410328278604</v>
+      </c>
+      <c r="H26">
+        <v>0.01331709775167774</v>
+      </c>
+      <c r="I26">
+        <v>-0.0371384985214176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1058271275283133</v>
+        <v>-0.06166723852375088</v>
       </c>
       <c r="C27">
-        <v>-0.01337115910992938</v>
+        <v>-0.0208092194185569</v>
       </c>
       <c r="D27">
-        <v>0.04660266278357253</v>
+        <v>0.003182283977602487</v>
       </c>
       <c r="E27">
-        <v>-0.02803493349814707</v>
+        <v>-0.0254441618905008</v>
       </c>
       <c r="F27">
-        <v>0.06073865941551287</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.04855474642994786</v>
+      </c>
+      <c r="G27">
+        <v>-0.02861163412299295</v>
+      </c>
+      <c r="H27">
+        <v>0.02778693390793653</v>
+      </c>
+      <c r="I27">
+        <v>-0.01936612705873077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.04789788114857527</v>
+        <v>-0.07061921681885028</v>
       </c>
       <c r="C28">
-        <v>-0.1426359806141732</v>
+        <v>0.2484753298069278</v>
       </c>
       <c r="D28">
-        <v>-0.2020387331499401</v>
+        <v>-0.01142891177808259</v>
       </c>
       <c r="E28">
-        <v>0.06151727915200001</v>
+        <v>0.05097065422445046</v>
       </c>
       <c r="F28">
-        <v>0.03727673341268002</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.03424171166744298</v>
+      </c>
+      <c r="G28">
+        <v>-0.04133581611309622</v>
+      </c>
+      <c r="H28">
+        <v>0.0365664906877264</v>
+      </c>
+      <c r="I28">
+        <v>-0.05404621007044481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02782917989611594</v>
+        <v>-0.02200241868836147</v>
       </c>
       <c r="C29">
-        <v>-0.002592837243418132</v>
+        <v>-0.02232726503567842</v>
       </c>
       <c r="D29">
-        <v>0.0464912527518623</v>
+        <v>0.008994014612041801</v>
       </c>
       <c r="E29">
-        <v>-0.02107250588797717</v>
+        <v>-0.03045325291937441</v>
       </c>
       <c r="F29">
-        <v>0.02774265890579122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03640061594023939</v>
+      </c>
+      <c r="G29">
+        <v>-0.05346925170998573</v>
+      </c>
+      <c r="H29">
+        <v>0.0285416605703292</v>
+      </c>
+      <c r="I29">
+        <v>0.000261947442514816</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1010602102166612</v>
+        <v>-0.08252060692833844</v>
       </c>
       <c r="C30">
-        <v>-0.01502099880638329</v>
+        <v>-0.05124472686745297</v>
       </c>
       <c r="D30">
-        <v>0.0583678705556429</v>
+        <v>-0.03917241369309938</v>
       </c>
       <c r="E30">
-        <v>7.522115953335069e-05</v>
+        <v>-0.03268649109614795</v>
       </c>
       <c r="F30">
-        <v>0.1076115745491296</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1017919210701797</v>
+      </c>
+      <c r="G30">
+        <v>-0.009180875770864237</v>
+      </c>
+      <c r="H30">
+        <v>-0.003325204769039375</v>
+      </c>
+      <c r="I30">
+        <v>-0.02271618419948715</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06322805580321351</v>
+        <v>-0.05779212758712387</v>
       </c>
       <c r="C31">
-        <v>-0.002475502681407322</v>
+        <v>-0.02286876596843113</v>
       </c>
       <c r="D31">
-        <v>0.03984587462450766</v>
+        <v>-0.00836761797323817</v>
       </c>
       <c r="E31">
-        <v>0.02981560530730342</v>
+        <v>-0.02269307852526896</v>
       </c>
       <c r="F31">
-        <v>-0.02235396468856518</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.0003973687220412883</v>
+      </c>
+      <c r="G31">
+        <v>-0.03954401981453583</v>
+      </c>
+      <c r="H31">
+        <v>0.04596761947749848</v>
+      </c>
+      <c r="I31">
+        <v>-0.01346578499586378</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.06029407985718852</v>
+        <v>-0.03595200961130771</v>
       </c>
       <c r="C32">
-        <v>0.01370857138457039</v>
+        <v>-0.04376760895353084</v>
       </c>
       <c r="D32">
-        <v>0.05781971299738186</v>
+        <v>0.01589668664903299</v>
       </c>
       <c r="E32">
-        <v>-0.01937265788821024</v>
+        <v>-0.03333537079880672</v>
       </c>
       <c r="F32">
-        <v>0.09952732303929142</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08231173803971294</v>
+      </c>
+      <c r="G32">
+        <v>-0.03377984848608864</v>
+      </c>
+      <c r="H32">
+        <v>0.03413513203336502</v>
+      </c>
+      <c r="I32">
+        <v>-0.0625095606624345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.05614496075940763</v>
+        <v>-0.04764912809530497</v>
       </c>
       <c r="C33">
-        <v>0.02667879454642133</v>
+        <v>-0.05456819582278614</v>
       </c>
       <c r="D33">
-        <v>0.06897264558947273</v>
+        <v>-0.01923826344955827</v>
       </c>
       <c r="E33">
-        <v>0.005661908138505378</v>
+        <v>-0.005233543565519094</v>
       </c>
       <c r="F33">
-        <v>0.07057370427925115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07353481840938811</v>
+      </c>
+      <c r="G33">
+        <v>-0.03783636587777044</v>
+      </c>
+      <c r="H33">
+        <v>0.04118592822041928</v>
+      </c>
+      <c r="I33">
+        <v>-0.03659313787359003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04419157066659528</v>
+        <v>-0.03949441391353432</v>
       </c>
       <c r="C34">
-        <v>0.005358689215496065</v>
+        <v>-0.03602135147135278</v>
       </c>
       <c r="D34">
-        <v>0.03303575353421486</v>
+        <v>0.005451750707781201</v>
       </c>
       <c r="E34">
-        <v>-0.007592591760662341</v>
+        <v>-0.01794529974748154</v>
       </c>
       <c r="F34">
-        <v>0.04156636848596781</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03819252809088337</v>
+      </c>
+      <c r="G34">
+        <v>-0.001787291112159246</v>
+      </c>
+      <c r="H34">
+        <v>0.009946071898199176</v>
+      </c>
+      <c r="I34">
+        <v>-0.03905442650290529</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.01674969672946077</v>
+        <v>-0.01641778196382143</v>
       </c>
       <c r="C36">
-        <v>-0.006306603336375462</v>
+        <v>-0.004117691649959649</v>
       </c>
       <c r="D36">
-        <v>0.01518866595005943</v>
+        <v>0.002988744438040804</v>
       </c>
       <c r="E36">
-        <v>-0.004287386448667204</v>
+        <v>-0.009923272353572149</v>
       </c>
       <c r="F36">
-        <v>0.0250047966831525</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02813052422008569</v>
+      </c>
+      <c r="G36">
+        <v>-0.02918389030555022</v>
+      </c>
+      <c r="H36">
+        <v>0.02793379319164099</v>
+      </c>
+      <c r="I36">
+        <v>0.00853277937211114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.03083101139627393</v>
+        <v>-0.02953980900548712</v>
       </c>
       <c r="C38">
-        <v>-0.004007877077366236</v>
+        <v>-0.01123150846827336</v>
       </c>
       <c r="D38">
-        <v>0.01348849508119083</v>
+        <v>0.003578673498336727</v>
       </c>
       <c r="E38">
-        <v>-0.01564735868760935</v>
+        <v>-0.004106176318671339</v>
       </c>
       <c r="F38">
-        <v>0.02560738350980229</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.04824201214191219</v>
+      </c>
+      <c r="G38">
+        <v>-0.01110081049339146</v>
+      </c>
+      <c r="H38">
+        <v>0.02966691282777344</v>
+      </c>
+      <c r="I38">
+        <v>0.00625642855024485</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.06439891110602369</v>
+        <v>-0.04939922923851619</v>
       </c>
       <c r="C39">
-        <v>0.004296384849255513</v>
+        <v>-0.05046746728299737</v>
       </c>
       <c r="D39">
-        <v>0.03823004651786484</v>
+        <v>-0.005047842721559061</v>
       </c>
       <c r="E39">
-        <v>0.009074425553775032</v>
+        <v>-0.01955490013384363</v>
       </c>
       <c r="F39">
-        <v>0.04120042236662187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.05728436904543595</v>
+      </c>
+      <c r="G39">
+        <v>0.0105788987193983</v>
+      </c>
+      <c r="H39">
+        <v>0.0231522066627863</v>
+      </c>
+      <c r="I39">
+        <v>-0.02230024406629068</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.06184265407111369</v>
+        <v>-0.05079098155376438</v>
       </c>
       <c r="C40">
-        <v>-0.01378309742484284</v>
+        <v>-0.04218749539600822</v>
       </c>
       <c r="D40">
-        <v>0.06979309987735594</v>
+        <v>-0.02223406007061615</v>
       </c>
       <c r="E40">
-        <v>0.03025547164416088</v>
+        <v>-0.02338952390574905</v>
       </c>
       <c r="F40">
-        <v>0.105891883407299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.08860001905668115</v>
+      </c>
+      <c r="G40">
+        <v>-0.03718462920815462</v>
+      </c>
+      <c r="H40">
+        <v>0.03745974213245273</v>
+      </c>
+      <c r="I40">
+        <v>-0.1169520309331115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.00422634603144304</v>
+        <v>-0.001356658241747577</v>
       </c>
       <c r="C41">
-        <v>0.004147344593626818</v>
+        <v>-0.005413617231201884</v>
       </c>
       <c r="D41">
-        <v>0.02763762304445207</v>
+        <v>-0.001558237693617732</v>
       </c>
       <c r="E41">
-        <v>-0.002467050879579975</v>
+        <v>-0.008075250812726111</v>
       </c>
       <c r="F41">
-        <v>-0.003552479533422816</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01028015658019195</v>
+      </c>
+      <c r="G41">
+        <v>-0.03903004686474663</v>
+      </c>
+      <c r="H41">
+        <v>0.04230250581129272</v>
+      </c>
+      <c r="I41">
+        <v>-0.001095246471561529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.2255816707671713</v>
+        <v>-0.2057012559202437</v>
       </c>
       <c r="C42">
-        <v>0.8280255286934876</v>
+        <v>-0.2781936379092582</v>
       </c>
       <c r="D42">
-        <v>-0.4029592867528216</v>
+        <v>-0.02364671115273461</v>
       </c>
       <c r="E42">
-        <v>0.226328246993648</v>
+        <v>0.9040154021605379</v>
       </c>
       <c r="F42">
-        <v>-0.07910340432591839</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1800775688455669</v>
+      </c>
+      <c r="G42">
+        <v>2.112746852450032e-05</v>
+      </c>
+      <c r="H42">
+        <v>-0.008897314233779593</v>
+      </c>
+      <c r="I42">
+        <v>-0.0346639972614079</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.003918520010421703</v>
+        <v>-0.004553836039961945</v>
       </c>
       <c r="C43">
-        <v>0.005707088818254142</v>
+        <v>-0.007388986855495471</v>
       </c>
       <c r="D43">
-        <v>0.0298420177161852</v>
+        <v>-0.004110880298898199</v>
       </c>
       <c r="E43">
-        <v>0.001097451383057472</v>
+        <v>-0.005917988752706663</v>
       </c>
       <c r="F43">
-        <v>0.02462404632402571</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.02094249179539397</v>
+      </c>
+      <c r="G43">
+        <v>-0.03262725881969013</v>
+      </c>
+      <c r="H43">
+        <v>0.02331466544628205</v>
+      </c>
+      <c r="I43">
+        <v>-0.009737709434896257</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.03570960726288311</v>
+        <v>-0.02359354883104673</v>
       </c>
       <c r="C44">
-        <v>0.01754665356801374</v>
+        <v>-0.03802703609064961</v>
       </c>
       <c r="D44">
-        <v>0.0630543410027929</v>
+        <v>0.0007285873065777966</v>
       </c>
       <c r="E44">
-        <v>-0.0001328522806627271</v>
+        <v>-0.01059387153932037</v>
       </c>
       <c r="F44">
-        <v>0.1222066466964147</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1202142652481683</v>
+      </c>
+      <c r="G44">
+        <v>-0.08440185972222533</v>
+      </c>
+      <c r="H44">
+        <v>0.06652615479695102</v>
+      </c>
+      <c r="I44">
+        <v>-0.05049988280215286</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.03132004581972942</v>
+        <v>-0.02357821360196706</v>
       </c>
       <c r="C46">
-        <v>0.005763940809396565</v>
+        <v>-0.0349503061024856</v>
       </c>
       <c r="D46">
-        <v>0.04903350423702148</v>
+        <v>-0.00430620466002953</v>
       </c>
       <c r="E46">
-        <v>-0.002531953681849817</v>
+        <v>-0.02913368314438664</v>
       </c>
       <c r="F46">
-        <v>0.01926970796478439</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04871872259814677</v>
+      </c>
+      <c r="G46">
+        <v>-0.05322887544173779</v>
+      </c>
+      <c r="H46">
+        <v>0.03041001675192482</v>
+      </c>
+      <c r="I46">
+        <v>-0.004489462979705088</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.09018140353164289</v>
+        <v>-0.08495442032529489</v>
       </c>
       <c r="C47">
-        <v>-0.006501407035294894</v>
+        <v>-0.02784019539066962</v>
       </c>
       <c r="D47">
-        <v>0.04514061701218362</v>
+        <v>-0.002904647444594835</v>
       </c>
       <c r="E47">
-        <v>-0.007883794463426474</v>
+        <v>-0.02868923287535988</v>
       </c>
       <c r="F47">
-        <v>-0.01462807221539834</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01526456848720032</v>
+      </c>
+      <c r="G47">
+        <v>-0.06534506445424994</v>
+      </c>
+      <c r="H47">
+        <v>0.04082382466154248</v>
+      </c>
+      <c r="I47">
+        <v>-0.02548549733839337</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.01759385215110246</v>
+        <v>-0.02047634738173196</v>
       </c>
       <c r="C48">
-        <v>0.002543520001804148</v>
+        <v>-0.01576083334645604</v>
       </c>
       <c r="D48">
-        <v>0.03480237195705026</v>
+        <v>0.0003899331043313836</v>
       </c>
       <c r="E48">
-        <v>-0.002363873742852151</v>
+        <v>-0.01397112865478544</v>
       </c>
       <c r="F48">
-        <v>0.02921048854615614</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.0299145787211469</v>
+      </c>
+      <c r="G48">
+        <v>-0.02162180165195621</v>
+      </c>
+      <c r="H48">
+        <v>0.01985940700866354</v>
+      </c>
+      <c r="I48">
+        <v>-0.01090910754062394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.08522705736947327</v>
+        <v>-0.08182460049039347</v>
       </c>
       <c r="C50">
-        <v>0.006732428493175344</v>
+        <v>-0.04213951423524592</v>
       </c>
       <c r="D50">
-        <v>0.04297113149876553</v>
+        <v>0.01122889569724434</v>
       </c>
       <c r="E50">
-        <v>0.007073203487793086</v>
+        <v>-0.02252955205819454</v>
       </c>
       <c r="F50">
-        <v>-0.02309057799476807</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.009483239942828734</v>
+      </c>
+      <c r="G50">
+        <v>-0.04084129276063761</v>
+      </c>
+      <c r="H50">
+        <v>-0.004029931815276234</v>
+      </c>
+      <c r="I50">
+        <v>0.01090476752456221</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05521103583235078</v>
+        <v>-0.03988858054527648</v>
       </c>
       <c r="C51">
-        <v>-0.01553982300607886</v>
+        <v>0.002547827165145734</v>
       </c>
       <c r="D51">
-        <v>0.02624981466762059</v>
+        <v>-0.01255562541208006</v>
       </c>
       <c r="E51">
-        <v>0.03510787512322779</v>
+        <v>-0.01075106976626054</v>
       </c>
       <c r="F51">
-        <v>0.05470999594456862</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.08061119649180321</v>
+      </c>
+      <c r="G51">
+        <v>-0.06215750332896714</v>
+      </c>
+      <c r="H51">
+        <v>0.06319672116206787</v>
+      </c>
+      <c r="I51">
+        <v>-0.03772613471876197</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1261466293688698</v>
+        <v>-0.1176459478205861</v>
       </c>
       <c r="C53">
-        <v>-0.01702872761074469</v>
+        <v>-0.04723390014227799</v>
       </c>
       <c r="D53">
-        <v>0.06680686694542458</v>
+        <v>-0.003359101448043513</v>
       </c>
       <c r="E53">
-        <v>0.002302231548183044</v>
+        <v>-0.0533522593269202</v>
       </c>
       <c r="F53">
-        <v>-0.0681286720475251</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.05437144786341041</v>
+      </c>
+      <c r="G53">
+        <v>-0.02681240857381242</v>
+      </c>
+      <c r="H53">
+        <v>0.0268041287143972</v>
+      </c>
+      <c r="I53">
+        <v>-0.02715195624138659</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02461931461381031</v>
+        <v>-0.02653598399039619</v>
       </c>
       <c r="C54">
-        <v>-0.01455939943609558</v>
+        <v>-0.004897254368081128</v>
       </c>
       <c r="D54">
-        <v>0.03400742607777164</v>
+        <v>0.003689418519735739</v>
       </c>
       <c r="E54">
-        <v>-0.009310504242586413</v>
+        <v>-0.02861730639662893</v>
       </c>
       <c r="F54">
-        <v>0.04209117978721452</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03836316701377132</v>
+      </c>
+      <c r="G54">
+        <v>-0.0501840805506408</v>
+      </c>
+      <c r="H54">
+        <v>0.0400130214121664</v>
+      </c>
+      <c r="I54">
+        <v>0.002699485323909927</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1026107960127701</v>
+        <v>-0.09308417933707815</v>
       </c>
       <c r="C55">
-        <v>-0.01729552569493627</v>
+        <v>-0.0403732645645369</v>
       </c>
       <c r="D55">
-        <v>0.02535753616117903</v>
+        <v>0.01416292159487601</v>
       </c>
       <c r="E55">
-        <v>-0.03957144965489468</v>
+        <v>-0.03829073389811233</v>
       </c>
       <c r="F55">
-        <v>-0.02859273126246103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.04288048648285735</v>
+      </c>
+      <c r="G55">
+        <v>-0.04212628909827813</v>
+      </c>
+      <c r="H55">
+        <v>-0.005902534945651386</v>
+      </c>
+      <c r="I55">
+        <v>-0.0008941676556927838</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.163223254920159</v>
+        <v>-0.1584506795314084</v>
       </c>
       <c r="C56">
-        <v>-0.06759323309122453</v>
+        <v>-0.03701551714021174</v>
       </c>
       <c r="D56">
-        <v>0.05931942410443757</v>
+        <v>6.464209166774793e-05</v>
       </c>
       <c r="E56">
-        <v>-0.02425884130692808</v>
+        <v>-0.08873193777859831</v>
       </c>
       <c r="F56">
-        <v>-0.1047723974895927</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09749437905195454</v>
+      </c>
+      <c r="G56">
+        <v>0.008290316089218512</v>
+      </c>
+      <c r="H56">
+        <v>-0.02255839048027662</v>
+      </c>
+      <c r="I56">
+        <v>-0.02889863198327432</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.06972012130080024</v>
+        <v>-0.057840004104715</v>
       </c>
       <c r="C57">
-        <v>0.00175657029567929</v>
+        <v>-0.02725837897750279</v>
       </c>
       <c r="D57">
-        <v>0.04334553183054314</v>
+        <v>-0.01888095004868464</v>
       </c>
       <c r="E57">
-        <v>0.02646699463806347</v>
+        <v>-0.003013533276950693</v>
       </c>
       <c r="F57">
-        <v>0.06609812907578279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06476350688631943</v>
+      </c>
+      <c r="G57">
+        <v>-0.02034244314058198</v>
+      </c>
+      <c r="H57">
+        <v>0.01925750431314863</v>
+      </c>
+      <c r="I57">
+        <v>-0.03045068771142365</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.2031865156339443</v>
+        <v>-0.2012697469968873</v>
       </c>
       <c r="C58">
-        <v>0.03820356829372935</v>
+        <v>-0.1245618324905014</v>
       </c>
       <c r="D58">
-        <v>0.09847763265655127</v>
+        <v>-0.09333106106713057</v>
       </c>
       <c r="E58">
-        <v>0.03437109181054204</v>
+        <v>0.03280815500128913</v>
       </c>
       <c r="F58">
-        <v>0.2333181592746723</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.3704783156497888</v>
+      </c>
+      <c r="G58">
+        <v>-0.324868968748796</v>
+      </c>
+      <c r="H58">
+        <v>-0.2467361326842886</v>
+      </c>
+      <c r="I58">
+        <v>0.7388101316542924</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.04167806927092398</v>
+        <v>-0.06842479813948948</v>
       </c>
       <c r="C59">
-        <v>-0.1363116007048003</v>
+        <v>0.2061611219706141</v>
       </c>
       <c r="D59">
-        <v>-0.143259390903219</v>
+        <v>-0.02695772643977232</v>
       </c>
       <c r="E59">
-        <v>0.04680547166181154</v>
+        <v>0.01997025429742385</v>
       </c>
       <c r="F59">
-        <v>0.04346142045783411</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.05269425772299039</v>
+      </c>
+      <c r="G59">
+        <v>0.004360621483150407</v>
+      </c>
+      <c r="H59">
+        <v>0.00791775243416604</v>
+      </c>
+      <c r="I59">
+        <v>-0.005795170104245629</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1810780313810184</v>
+        <v>-0.1992508768270151</v>
       </c>
       <c r="C60">
-        <v>-0.06616901929481957</v>
+        <v>0.0494929381256512</v>
       </c>
       <c r="D60">
-        <v>-0.01600715464246082</v>
+        <v>-0.05822665187183389</v>
       </c>
       <c r="E60">
-        <v>0.08177999184262229</v>
+        <v>-0.01075837500250929</v>
       </c>
       <c r="F60">
-        <v>0.1328597378516854</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1751524406887975</v>
+      </c>
+      <c r="G60">
+        <v>0.3525829240622422</v>
+      </c>
+      <c r="H60">
+        <v>-0.04562385342294115</v>
+      </c>
+      <c r="I60">
+        <v>-0.0450028289485765</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03611607506774245</v>
+        <v>-0.03751128392181022</v>
       </c>
       <c r="C61">
-        <v>0.004825696466510674</v>
+        <v>-0.03506093695408728</v>
       </c>
       <c r="D61">
-        <v>0.02257777565852921</v>
+        <v>0.00111471919708346</v>
       </c>
       <c r="E61">
-        <v>-0.006519076426692284</v>
+        <v>-0.01369783115016231</v>
       </c>
       <c r="F61">
-        <v>0.04527742821998906</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.04142135812424686</v>
+      </c>
+      <c r="G61">
+        <v>0.01589973726875389</v>
+      </c>
+      <c r="H61">
+        <v>0.01088247477299665</v>
+      </c>
+      <c r="I61">
+        <v>-0.01285521381247332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.0334476984475137</v>
+        <v>-0.02664530933007338</v>
       </c>
       <c r="C63">
-        <v>-0.00326122757127928</v>
+        <v>-0.02211630853841458</v>
       </c>
       <c r="D63">
-        <v>0.0315318763591159</v>
+        <v>-0.0008588853978050588</v>
       </c>
       <c r="E63">
-        <v>0.002494102977120121</v>
+        <v>-0.01601075901091947</v>
       </c>
       <c r="F63">
-        <v>0.05361746278729956</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.03480823407060564</v>
+      </c>
+      <c r="G63">
+        <v>-0.04769546333042442</v>
+      </c>
+      <c r="H63">
+        <v>0.01299170375614194</v>
+      </c>
+      <c r="I63">
+        <v>-0.02767544923317372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05507405019137984</v>
+        <v>-0.05420756051411157</v>
       </c>
       <c r="C64">
-        <v>0.008463228751429609</v>
+        <v>-0.03899011016531935</v>
       </c>
       <c r="D64">
-        <v>0.04865061950281278</v>
+        <v>0.01085071691975511</v>
       </c>
       <c r="E64">
-        <v>-0.03677008439234965</v>
+        <v>-0.02128178447148726</v>
       </c>
       <c r="F64">
-        <v>0.04427790341332271</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.04246160386790561</v>
+      </c>
+      <c r="G64">
+        <v>-0.02078731883587164</v>
+      </c>
+      <c r="H64">
+        <v>0.06516414380833892</v>
+      </c>
+      <c r="I64">
+        <v>-0.04531782419872291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-2.249662317714496e-05</v>
+        <v>-0.02951628453458108</v>
       </c>
       <c r="C65">
-        <v>4.754006904415622e-05</v>
+        <v>-0.01384626317748833</v>
       </c>
       <c r="D65">
-        <v>-9.346877597425361e-06</v>
+        <v>0.004486643391340676</v>
       </c>
       <c r="E65">
-        <v>2.327515288688754e-05</v>
+        <v>-0.008263932737742851</v>
       </c>
       <c r="F65">
-        <v>0.0001155222861925188</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.005341051619121406</v>
+      </c>
+      <c r="G65">
+        <v>0.02432686504230396</v>
+      </c>
+      <c r="H65">
+        <v>-0.01524690965001053</v>
+      </c>
+      <c r="I65">
+        <v>-0.006558896846704085</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.06737766341824816</v>
+        <v>-0.06065031868737415</v>
       </c>
       <c r="C66">
-        <v>-0.001905231373528892</v>
+        <v>-0.05965556216035447</v>
       </c>
       <c r="D66">
-        <v>0.06578927477381467</v>
+        <v>-0.0127784822665497</v>
       </c>
       <c r="E66">
-        <v>-0.007487602818773084</v>
+        <v>-0.04534536696109392</v>
       </c>
       <c r="F66">
-        <v>0.08243446532489467</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.07034083627849366</v>
+      </c>
+      <c r="G66">
+        <v>0.01071258092159988</v>
+      </c>
+      <c r="H66">
+        <v>0.009136259749035397</v>
+      </c>
+      <c r="I66">
+        <v>-0.06610032759687791</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.0491781896534377</v>
+        <v>-0.04814736994841021</v>
       </c>
       <c r="C67">
-        <v>-0.01492187614994677</v>
+        <v>0.00118774455473263</v>
       </c>
       <c r="D67">
-        <v>0.0004182090331025329</v>
+        <v>-0.001650270194375014</v>
       </c>
       <c r="E67">
-        <v>-0.005143612867797064</v>
+        <v>-0.006573871609116337</v>
       </c>
       <c r="F67">
-        <v>0.0291307936920812</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03862605857995155</v>
+      </c>
+      <c r="G67">
+        <v>0.01137539919564942</v>
+      </c>
+      <c r="H67">
+        <v>0.04066554690564465</v>
+      </c>
+      <c r="I67">
+        <v>0.007851113174135251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.07126200306404019</v>
+        <v>-0.07925243535762619</v>
       </c>
       <c r="C68">
-        <v>-0.1416787206478397</v>
+        <v>0.2347348211004906</v>
       </c>
       <c r="D68">
-        <v>-0.1953572535783686</v>
+        <v>-0.02255755551349767</v>
       </c>
       <c r="E68">
-        <v>0.05494943446539186</v>
+        <v>0.03999979705430808</v>
       </c>
       <c r="F68">
-        <v>0.02150624634380462</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.01900787426900066</v>
+      </c>
+      <c r="G68">
+        <v>-0.04334932260986638</v>
+      </c>
+      <c r="H68">
+        <v>-0.007888399610350491</v>
+      </c>
+      <c r="I68">
+        <v>0.008779319628462227</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07357299923237393</v>
+        <v>-0.0679920262642905</v>
       </c>
       <c r="C69">
-        <v>-0.0140418815106108</v>
+        <v>-0.02491856530177098</v>
       </c>
       <c r="D69">
-        <v>0.0327886328596468</v>
+        <v>-0.004926831251571691</v>
       </c>
       <c r="E69">
-        <v>-0.001650012664341176</v>
+        <v>-0.03103036182746316</v>
       </c>
       <c r="F69">
-        <v>-0.004207973364383142</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.003198486283956787</v>
+      </c>
+      <c r="G69">
+        <v>-0.04041518181137609</v>
+      </c>
+      <c r="H69">
+        <v>0.02835356749769423</v>
+      </c>
+      <c r="I69">
+        <v>-0.01719081340122163</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.06844320215007715</v>
+        <v>-0.07594901886422875</v>
       </c>
       <c r="C71">
-        <v>-0.1757870597045982</v>
+        <v>0.2592458397287709</v>
       </c>
       <c r="D71">
-        <v>-0.2309596309742887</v>
+        <v>-0.02821262647117016</v>
       </c>
       <c r="E71">
-        <v>0.1012514718454174</v>
+        <v>0.05309853110305135</v>
       </c>
       <c r="F71">
-        <v>0.05958291695380469</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.04169938930200329</v>
+      </c>
+      <c r="G71">
+        <v>-0.03613990374829382</v>
+      </c>
+      <c r="H71">
+        <v>0.0145678395741498</v>
+      </c>
+      <c r="I71">
+        <v>-0.01764626465471233</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.134630307960622</v>
+        <v>-0.1365219328602921</v>
       </c>
       <c r="C72">
-        <v>-0.05332038118996439</v>
+        <v>-0.04178278042751559</v>
       </c>
       <c r="D72">
-        <v>0.04511041481590109</v>
+        <v>-0.01621019205314898</v>
       </c>
       <c r="E72">
-        <v>-0.0007618755872578714</v>
+        <v>-0.07949474197281362</v>
       </c>
       <c r="F72">
-        <v>0.07967991043092834</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.1005841618299804</v>
+      </c>
+      <c r="G72">
+        <v>0.1079489666169577</v>
+      </c>
+      <c r="H72">
+        <v>-0.01857794309007977</v>
+      </c>
+      <c r="I72">
+        <v>0.1418244047184635</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2865630028133593</v>
+        <v>-0.2853364169137605</v>
       </c>
       <c r="C73">
-        <v>-0.08732179534950033</v>
+        <v>0.05491389048212467</v>
       </c>
       <c r="D73">
-        <v>-0.06776833713194487</v>
+        <v>-0.09700105580297835</v>
       </c>
       <c r="E73">
-        <v>0.1108318145078647</v>
+        <v>0.03100936576638103</v>
       </c>
       <c r="F73">
-        <v>0.2299674780712517</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.2523823754251094</v>
+      </c>
+      <c r="G73">
+        <v>0.5229266646792116</v>
+      </c>
+      <c r="H73">
+        <v>-0.1241191848642056</v>
+      </c>
+      <c r="I73">
+        <v>-0.01420126801633783</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.149099737149121</v>
+        <v>-0.1437654726630145</v>
       </c>
       <c r="C74">
-        <v>-0.01542632396349501</v>
+        <v>-0.05121182270402428</v>
       </c>
       <c r="D74">
-        <v>0.04600581636027958</v>
+        <v>-0.007285777885190074</v>
       </c>
       <c r="E74">
-        <v>-0.00226498945486253</v>
+        <v>-0.05186304591303934</v>
       </c>
       <c r="F74">
-        <v>-0.05516389264169138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.07514991547504514</v>
+      </c>
+      <c r="G74">
+        <v>0.005525602489902501</v>
+      </c>
+      <c r="H74">
+        <v>-0.01868926391376609</v>
+      </c>
+      <c r="I74">
+        <v>-0.07433543394421008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.226580783327147</v>
+        <v>-0.2474143476320386</v>
       </c>
       <c r="C75">
-        <v>-0.05797378474379445</v>
+        <v>-0.05853721249558696</v>
       </c>
       <c r="D75">
-        <v>0.09638795264926082</v>
+        <v>-0.02588949647715889</v>
       </c>
       <c r="E75">
-        <v>0.005582985253707734</v>
+        <v>-0.121443629543348</v>
       </c>
       <c r="F75">
-        <v>-0.1434118337252724</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1475577347154778</v>
+      </c>
+      <c r="G75">
+        <v>-0.01224773566695426</v>
+      </c>
+      <c r="H75">
+        <v>0.01109447915959942</v>
+      </c>
+      <c r="I75">
+        <v>-0.01693987390324021</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.259109383640369</v>
+        <v>-0.2587589377996131</v>
       </c>
       <c r="C76">
-        <v>-0.08494414206446227</v>
+        <v>-0.0473820092202286</v>
       </c>
       <c r="D76">
-        <v>0.07014426842350191</v>
+        <v>0.01382389831828846</v>
       </c>
       <c r="E76">
-        <v>-0.05974494847901749</v>
+        <v>-0.1436728743364825</v>
       </c>
       <c r="F76">
-        <v>-0.1404851287244512</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1929690586919832</v>
+      </c>
+      <c r="G76">
+        <v>-0.02689461325119329</v>
+      </c>
+      <c r="H76">
+        <v>-0.0699275002646261</v>
+      </c>
+      <c r="I76">
+        <v>-0.02062651705713507</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1468452948939135</v>
+        <v>-0.1098667325241734</v>
       </c>
       <c r="C77">
-        <v>0.07949748395948865</v>
+        <v>-0.07418121601593115</v>
       </c>
       <c r="D77">
-        <v>0.02972022744238245</v>
+        <v>-0.007697296516226454</v>
       </c>
       <c r="E77">
-        <v>0.01963185559965487</v>
+        <v>0.04803858824851179</v>
       </c>
       <c r="F77">
-        <v>0.1894381714945033</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1650129392828701</v>
+      </c>
+      <c r="G77">
+        <v>-0.2343123876619811</v>
+      </c>
+      <c r="H77">
+        <v>0.00980397857685592</v>
+      </c>
+      <c r="I77">
+        <v>-0.231340470368174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.0877731010932199</v>
+        <v>-0.06544845811288473</v>
       </c>
       <c r="C78">
-        <v>0.04780560654758707</v>
+        <v>-0.07224778338359335</v>
       </c>
       <c r="D78">
-        <v>0.07016379392696852</v>
+        <v>0.003188843146827815</v>
       </c>
       <c r="E78">
-        <v>-0.01580648310721499</v>
+        <v>-0.01488323063867475</v>
       </c>
       <c r="F78">
-        <v>0.04801993702469413</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.07687767313725885</v>
+      </c>
+      <c r="G78">
+        <v>-0.02269842219349488</v>
+      </c>
+      <c r="H78">
+        <v>0.02920618902674401</v>
+      </c>
+      <c r="I78">
+        <v>-0.03881899144239571</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1185598915489449</v>
+        <v>-0.1413367819214662</v>
       </c>
       <c r="C80">
-        <v>0.0894949531275739</v>
+        <v>0.06345210901188129</v>
       </c>
       <c r="D80">
-        <v>-0.3024739770370227</v>
+        <v>0.9734549452504198</v>
       </c>
       <c r="E80">
-        <v>-0.9160525395219569</v>
+        <v>0.03638545107844895</v>
       </c>
       <c r="F80">
-        <v>0.0642696860916169</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.06837824825241524</v>
+      </c>
+      <c r="G80">
+        <v>0.05863660830607908</v>
+      </c>
+      <c r="H80">
+        <v>0.0324908206641009</v>
+      </c>
+      <c r="I80">
+        <v>0.08379611725116598</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1606763350268683</v>
+        <v>-0.1816365485742612</v>
       </c>
       <c r="C81">
-        <v>-0.04835794793452095</v>
+        <v>-0.03617149657044794</v>
       </c>
       <c r="D81">
-        <v>0.05537821924296099</v>
+        <v>-0.00254799555739472</v>
       </c>
       <c r="E81">
-        <v>-0.02055836319509097</v>
+        <v>-0.100603583397382</v>
       </c>
       <c r="F81">
-        <v>-0.1625722291290145</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1496702988099569</v>
+      </c>
+      <c r="G81">
+        <v>-0.03930823789574887</v>
+      </c>
+      <c r="H81">
+        <v>-0.02698089458849064</v>
+      </c>
+      <c r="I81">
+        <v>0.003331797030991772</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.06832123343875614</v>
+        <v>-0.05640696340871473</v>
       </c>
       <c r="C83">
-        <v>0.06714660090616531</v>
+        <v>-0.04679051881732104</v>
       </c>
       <c r="D83">
-        <v>0.04352660661749801</v>
+        <v>-0.01103044107441513</v>
       </c>
       <c r="E83">
-        <v>0.01876918041799551</v>
+        <v>0.02477327596425495</v>
       </c>
       <c r="F83">
-        <v>0.0255534113652572</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04697051360675186</v>
+      </c>
+      <c r="G83">
+        <v>-0.02835899337472866</v>
+      </c>
+      <c r="H83">
+        <v>0.05255291565047564</v>
+      </c>
+      <c r="I83">
+        <v>-0.04719129828920754</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2234412649187688</v>
+        <v>-0.2383365770752384</v>
       </c>
       <c r="C85">
-        <v>-0.02578777783900073</v>
+        <v>-0.08009094311297672</v>
       </c>
       <c r="D85">
-        <v>0.08664165152749938</v>
+        <v>-0.006062643299371902</v>
       </c>
       <c r="E85">
-        <v>-0.05283236504978466</v>
+        <v>-0.112070610666734</v>
       </c>
       <c r="F85">
-        <v>-0.1706063654316133</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1940949983713584</v>
+      </c>
+      <c r="G85">
+        <v>-0.04671551240031482</v>
+      </c>
+      <c r="H85">
+        <v>-0.01657128984186866</v>
+      </c>
+      <c r="I85">
+        <v>-0.0230326875949739</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.0301180429862411</v>
+        <v>-0.02367804155689653</v>
       </c>
       <c r="C86">
-        <v>0.02639506139786255</v>
+        <v>-0.0472748962361598</v>
       </c>
       <c r="D86">
-        <v>0.05841553255632831</v>
+        <v>-0.002606188543421856</v>
       </c>
       <c r="E86">
-        <v>0.002346539046416225</v>
+        <v>-0.01157090922140039</v>
       </c>
       <c r="F86">
-        <v>0.08418696624725262</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.08761242515881176</v>
+      </c>
+      <c r="G86">
+        <v>-0.05657680730115186</v>
+      </c>
+      <c r="H86">
+        <v>0.01654049368814604</v>
+      </c>
+      <c r="I86">
+        <v>-0.06494360138220617</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01885834193909278</v>
+        <v>-0.02487721569896706</v>
       </c>
       <c r="C87">
-        <v>-0.0247793802626216</v>
+        <v>0.008951855420092391</v>
       </c>
       <c r="D87">
-        <v>-0.03666414172618921</v>
+        <v>0.001964762107192103</v>
       </c>
       <c r="E87">
-        <v>0.01361424042070219</v>
+        <v>0.004972169693445536</v>
       </c>
       <c r="F87">
-        <v>0.1001405213009282</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1067475157739085</v>
+      </c>
+      <c r="G87">
+        <v>-0.01558734852714902</v>
+      </c>
+      <c r="H87">
+        <v>-0.01204747920236393</v>
+      </c>
+      <c r="I87">
+        <v>-0.04976167818856832</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.02537653071525581</v>
+        <v>-0.03567659207269779</v>
       </c>
       <c r="C88">
-        <v>-0.0002737905809156043</v>
+        <v>-0.004679775527867631</v>
       </c>
       <c r="D88">
-        <v>0.01760253335811917</v>
+        <v>0.002925787157537076</v>
       </c>
       <c r="E88">
-        <v>-0.02247885611145245</v>
+        <v>-0.01095321667431126</v>
       </c>
       <c r="F88">
-        <v>-0.003768017012965591</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.004319719373378586</v>
+      </c>
+      <c r="G88">
+        <v>-0.007587715315063739</v>
+      </c>
+      <c r="H88">
+        <v>0.04989338633532277</v>
+      </c>
+      <c r="I88">
+        <v>-0.005379761253476378</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.09948248128825302</v>
+        <v>-0.1269110504031315</v>
       </c>
       <c r="C89">
-        <v>-0.1889688684140952</v>
+        <v>0.3820982674859075</v>
       </c>
       <c r="D89">
-        <v>-0.305636619580223</v>
+        <v>-0.05977229297041795</v>
       </c>
       <c r="E89">
-        <v>0.1254788830627427</v>
+        <v>0.0757070508429528</v>
       </c>
       <c r="F89">
-        <v>0.02656124788284581</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.02436294606999494</v>
+      </c>
+      <c r="G89">
+        <v>-0.09671954471299896</v>
+      </c>
+      <c r="H89">
+        <v>0.03452853430691278</v>
+      </c>
+      <c r="I89">
+        <v>-0.04810405044213563</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.0783298905302019</v>
+        <v>-0.08589127042615319</v>
       </c>
       <c r="C90">
-        <v>-0.173016979858881</v>
+        <v>0.329625072990773</v>
       </c>
       <c r="D90">
-        <v>-0.2737345031936226</v>
+        <v>-0.03207548840829072</v>
       </c>
       <c r="E90">
-        <v>0.0550634502406366</v>
+        <v>0.06576412938349384</v>
       </c>
       <c r="F90">
-        <v>0.03900493050202372</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.0008351874969417998</v>
+      </c>
+      <c r="G90">
+        <v>-0.08226848121752744</v>
+      </c>
+      <c r="H90">
+        <v>0.02127469664216026</v>
+      </c>
+      <c r="I90">
+        <v>-0.008566441749644899</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2813874714185494</v>
+        <v>-0.2840966688085675</v>
       </c>
       <c r="C91">
-        <v>-0.02318497097404663</v>
+        <v>-0.1045416400734771</v>
       </c>
       <c r="D91">
-        <v>0.1230284823244767</v>
+        <v>-0.009616973864907313</v>
       </c>
       <c r="E91">
-        <v>-0.05381291003964356</v>
+        <v>-0.1179859974018783</v>
       </c>
       <c r="F91">
-        <v>-0.2650463702231362</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2650853418773823</v>
+      </c>
+      <c r="G91">
+        <v>-0.04982737372488186</v>
+      </c>
+      <c r="H91">
+        <v>-0.05567211450626735</v>
+      </c>
+      <c r="I91">
+        <v>-0.02699421554339611</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.1066105917678755</v>
+        <v>-0.1656639032728094</v>
       </c>
       <c r="C92">
-        <v>-0.1454660695768762</v>
+        <v>0.3472295264808643</v>
       </c>
       <c r="D92">
-        <v>-0.3110879040876505</v>
+        <v>-0.01585836877088509</v>
       </c>
       <c r="E92">
-        <v>0.03832460309237515</v>
+        <v>0.09521775314297988</v>
       </c>
       <c r="F92">
-        <v>-0.04570849159775986</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1074750658186447</v>
+      </c>
+      <c r="G92">
+        <v>-0.2632807775563483</v>
+      </c>
+      <c r="H92">
+        <v>0.05887769066339867</v>
+      </c>
+      <c r="I92">
+        <v>0.05378926106008111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.07615424444256155</v>
+        <v>-0.1064778360425658</v>
       </c>
       <c r="C93">
-        <v>-0.203594470726477</v>
+        <v>0.3931424504671976</v>
       </c>
       <c r="D93">
-        <v>-0.3343391110812214</v>
+        <v>-0.04680179264517433</v>
       </c>
       <c r="E93">
-        <v>0.07854101538894383</v>
+        <v>0.1042440393483009</v>
       </c>
       <c r="F93">
-        <v>-0.02692077592210488</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.03312975682718552</v>
+      </c>
+      <c r="G93">
+        <v>-0.02319214405146081</v>
+      </c>
+      <c r="H93">
+        <v>0.04679298559251985</v>
+      </c>
+      <c r="I93">
+        <v>0.03592505249114222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2820434264124692</v>
+        <v>-0.3061284436417249</v>
       </c>
       <c r="C94">
-        <v>-0.0746207143755389</v>
+        <v>-0.0208389190833679</v>
       </c>
       <c r="D94">
-        <v>0.01236835027228574</v>
+        <v>-0.03334608147391527</v>
       </c>
       <c r="E94">
-        <v>-0.01401667929550509</v>
+        <v>-0.1276571858917744</v>
       </c>
       <c r="F94">
-        <v>-0.2301593628446746</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.2678829930551989</v>
+      </c>
+      <c r="G94">
+        <v>-0.1079646286320862</v>
+      </c>
+      <c r="H94">
+        <v>-0.1978010767195406</v>
+      </c>
+      <c r="I94">
+        <v>-0.03107706892946122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1585805529997902</v>
+        <v>-0.1273878133846922</v>
       </c>
       <c r="C95">
-        <v>0.03403767847447167</v>
+        <v>-0.07544813932138526</v>
       </c>
       <c r="D95">
-        <v>0.1068843175731686</v>
+        <v>-0.08101940583720543</v>
       </c>
       <c r="E95">
-        <v>0.05612242902484531</v>
+        <v>-0.03257127772312039</v>
       </c>
       <c r="F95">
-        <v>-0.4608966009171996</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.08242491718825358</v>
+      </c>
+      <c r="G95">
+        <v>0.1202271954708212</v>
+      </c>
+      <c r="H95">
+        <v>0.8856193469833135</v>
+      </c>
+      <c r="I95">
+        <v>0.3018121785428725</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2095760537837024</v>
+        <v>-0.2187963865761421</v>
       </c>
       <c r="C98">
-        <v>-0.04966888477887497</v>
+        <v>0.05102467934589013</v>
       </c>
       <c r="D98">
-        <v>-0.03911651607279067</v>
+        <v>-0.06867243396032371</v>
       </c>
       <c r="E98">
-        <v>0.08781367446887633</v>
+        <v>0.02361778666829038</v>
       </c>
       <c r="F98">
-        <v>0.05074407402443122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1643546555785151</v>
+      </c>
+      <c r="G98">
+        <v>0.3821913600674624</v>
+      </c>
+      <c r="H98">
+        <v>-0.06530333915485223</v>
+      </c>
+      <c r="I98">
+        <v>0.019742423899845</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.007581809548072918</v>
+        <v>-0.0154433346218045</v>
       </c>
       <c r="C101">
-        <v>-0.008874438086063249</v>
+        <v>-0.03179045163414478</v>
       </c>
       <c r="D101">
-        <v>0.07022569884479191</v>
+        <v>0.004423856271047631</v>
       </c>
       <c r="E101">
-        <v>-0.02514935763146478</v>
+        <v>-0.03695412427716074</v>
       </c>
       <c r="F101">
-        <v>0.03396985222722064</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.07757403446621218</v>
+      </c>
+      <c r="G101">
+        <v>-0.1022661919048238</v>
+      </c>
+      <c r="H101">
+        <v>0.001440506320410122</v>
+      </c>
+      <c r="I101">
+        <v>0.1294155973568353</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.09378335320886087</v>
+        <v>-0.113349096227081</v>
       </c>
       <c r="C102">
-        <v>-0.01903407802083092</v>
+        <v>-0.03676941012765426</v>
       </c>
       <c r="D102">
-        <v>0.05574826186482518</v>
+        <v>0.005588597866146293</v>
       </c>
       <c r="E102">
-        <v>-0.03984380458634996</v>
+        <v>-0.05796879689065778</v>
       </c>
       <c r="F102">
-        <v>-0.08622428422510907</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1081007758478505</v>
+      </c>
+      <c r="G102">
+        <v>-0.01950891768045847</v>
+      </c>
+      <c r="H102">
+        <v>-0.00707241665877631</v>
+      </c>
+      <c r="I102">
+        <v>-0.02902881978085105</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02170504226048667</v>
+        <v>-0.02770474095581033</v>
       </c>
       <c r="C103">
-        <v>-0.007901236750871378</v>
+        <v>-0.01375516346878242</v>
       </c>
       <c r="D103">
-        <v>0.02205147341314447</v>
+        <v>0.009382600101093262</v>
       </c>
       <c r="E103">
-        <v>-0.01105555262681366</v>
+        <v>-0.02080543836454134</v>
       </c>
       <c r="F103">
-        <v>-0.02184577306553003</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.0195188760507593</v>
+      </c>
+      <c r="G103">
+        <v>-0.0179496218449298</v>
+      </c>
+      <c r="H103">
+        <v>0.008166291659282197</v>
+      </c>
+      <c r="I103">
+        <v>-0.01566774842885449</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
